--- a/TCS_NEWUI-My Exports Page.xlsx
+++ b/TCS_NEWUI-My Exports Page.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\Completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679EED21-2D9D-4826-B525-25F901CE94E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19185D13-F464-472E-BA44-9F8495F4CFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{52D8B5C8-5704-42E7-840D-357200026F6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52D8B5C8-5704-42E7-840D-357200026F6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -1672,6 +1672,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1690,14 +1699,8 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1715,9 +1718,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="31" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3864,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DCF538-88E1-407F-849A-97E1CB23C8A7}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4125,7 +4125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98CA303-092F-4267-9E96-5FD55453FE85}">
   <dimension ref="A1:H956"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -4792,10 +4792,10 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="87"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="16"/>
@@ -4854,10 +4854,10 @@
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="89"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="16"/>
@@ -4988,39 +4988,39 @@
       <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:8" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" s="41" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
       <c r="F18" s="44" t="s">
         <v>71</v>
       </c>
@@ -5034,14 +5034,14 @@
       <c r="A19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
     </row>
     <row r="20" spans="1:8" s="41" customFormat="1">
       <c r="A20" s="47" t="s">
@@ -5107,23 +5107,23 @@
       <c r="A23" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="84"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="78"/>
     </row>
     <row r="24" spans="1:8" s="41" customFormat="1">
       <c r="A24" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="44" t="s">
         <v>71</v>
       </c>
@@ -5136,14 +5136,14 @@
       <c r="A25" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
     </row>
     <row r="26" spans="1:8" s="41" customFormat="1">
       <c r="A26" s="47" t="s">
@@ -5225,23 +5225,23 @@
       <c r="A30" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="84"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
     </row>
     <row r="31" spans="1:8" s="41" customFormat="1">
       <c r="A31" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="78"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="44" t="s">
         <v>71</v>
       </c>
@@ -5254,14 +5254,14 @@
       <c r="A32" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="79" t="s">
+      <c r="B32" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
     </row>
     <row r="33" spans="1:7" s="41" customFormat="1">
       <c r="A33" s="47" t="s">
@@ -5358,23 +5358,23 @@
       <c r="A38" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="84"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="78"/>
     </row>
     <row r="39" spans="1:7" s="41" customFormat="1">
       <c r="A39" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="78"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="44" t="s">
         <v>71</v>
       </c>
@@ -5387,14 +5387,14 @@
       <c r="A40" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="81"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="84"/>
     </row>
     <row r="41" spans="1:7" s="41" customFormat="1">
       <c r="A41" s="47" t="s">
@@ -5491,23 +5491,23 @@
       <c r="A46" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="84"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="78"/>
     </row>
     <row r="47" spans="1:7" s="41" customFormat="1">
       <c r="A47" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="76" t="s">
+      <c r="B47" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="81"/>
       <c r="F47" s="44" t="s">
         <v>71</v>
       </c>
@@ -5520,14 +5520,14 @@
       <c r="A48" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="81"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="83"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="84"/>
     </row>
     <row r="49" spans="1:7" s="41" customFormat="1">
       <c r="A49" s="47" t="s">
@@ -5652,12 +5652,12 @@
       <c r="A56" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="78"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="81"/>
       <c r="F56" s="44" t="s">
         <v>71</v>
       </c>
@@ -5670,14 +5670,14 @@
       <c r="A57" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="81"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84"/>
     </row>
     <row r="58" spans="1:7" s="41" customFormat="1">
       <c r="A58" s="47" t="s">
@@ -5819,12 +5819,12 @@
       <c r="A66" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="76" t="s">
+      <c r="B66" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="78"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="81"/>
       <c r="F66" s="44" t="s">
         <v>71</v>
       </c>
@@ -5837,14 +5837,14 @@
       <c r="A67" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="81"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
+      <c r="E67" s="83"/>
+      <c r="F67" s="83"/>
+      <c r="G67" s="84"/>
     </row>
     <row r="68" spans="1:7" s="41" customFormat="1">
       <c r="A68" s="47" t="s">
@@ -5952,12 +5952,12 @@
       <c r="A74" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="78"/>
+      <c r="C74" s="80"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="81"/>
       <c r="F74" s="44" t="s">
         <v>71</v>
       </c>
@@ -5970,14 +5970,14 @@
       <c r="A75" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="81"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
+      <c r="E75" s="83"/>
+      <c r="F75" s="83"/>
+      <c r="G75" s="84"/>
     </row>
     <row r="76" spans="1:7" s="41" customFormat="1">
       <c r="A76" s="47" t="s">
@@ -6085,12 +6085,12 @@
       <c r="A82" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="76" t="s">
+      <c r="B82" s="79" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="78"/>
+      <c r="C82" s="80"/>
+      <c r="D82" s="80"/>
+      <c r="E82" s="81"/>
       <c r="F82" s="44"/>
       <c r="G82" s="45" t="str">
         <f>IF(COUNTIF(F85:F87,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F85:F87,"Fail")&gt;0,"Fail",IF(COUNTIF(F85:F87,"")=0,"Pass","Not Executed")))</f>
@@ -6101,14 +6101,14 @@
       <c r="A83" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="82" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="81"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
+      <c r="G83" s="84"/>
     </row>
     <row r="84" spans="1:8" s="41" customFormat="1">
       <c r="A84" s="47" t="s">
@@ -6188,23 +6188,23 @@
       <c r="A88" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="84"/>
+      <c r="B88" s="76"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="78"/>
     </row>
     <row r="89" spans="1:8" s="54" customFormat="1">
       <c r="A89" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="76" t="s">
+      <c r="B89" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="78"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="44"/>
       <c r="G89" s="45" t="str">
         <f>IF(COUNTIF(F92:F101,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F92:F101,"Fail")&gt;0,"Fail",IF(COUNTIF(F92:F101,"")=0,"Pass","Not Executed")))</f>
@@ -6215,14 +6215,14 @@
       <c r="A90" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
-      <c r="F90" s="80"/>
-      <c r="G90" s="81"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
+      <c r="F90" s="83"/>
+      <c r="G90" s="84"/>
     </row>
     <row r="91" spans="1:8" s="54" customFormat="1">
       <c r="A91" s="47" t="s">
@@ -6431,12 +6431,12 @@
       <c r="A103" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B103" s="76" t="s">
+      <c r="B103" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="78"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="81"/>
       <c r="F103" s="44" t="s">
         <v>71</v>
       </c>
@@ -6449,14 +6449,14 @@
       <c r="A104" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="79" t="s">
+      <c r="B104" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="80"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
-      <c r="F104" s="80"/>
-      <c r="G104" s="81"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="84"/>
     </row>
     <row r="105" spans="1:7" s="41" customFormat="1">
       <c r="A105" s="47" t="s">
@@ -6585,23 +6585,23 @@
       <c r="A112" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B112" s="82"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
-      <c r="G112" s="84"/>
+      <c r="B112" s="76"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="78"/>
     </row>
     <row r="113" spans="1:7" s="41" customFormat="1">
       <c r="A113" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="76" t="s">
+      <c r="B113" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="78"/>
+      <c r="C113" s="80"/>
+      <c r="D113" s="80"/>
+      <c r="E113" s="81"/>
       <c r="F113" s="44" t="s">
         <v>71</v>
       </c>
@@ -6614,14 +6614,14 @@
       <c r="A114" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="79" t="s">
+      <c r="B114" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C114" s="80"/>
-      <c r="D114" s="80"/>
-      <c r="E114" s="80"/>
-      <c r="F114" s="80"/>
-      <c r="G114" s="81"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="84"/>
     </row>
     <row r="115" spans="1:7" s="41" customFormat="1">
       <c r="A115" s="47" t="s">
@@ -6750,12 +6750,12 @@
       <c r="A122" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="76" t="s">
+      <c r="B122" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="78"/>
+      <c r="C122" s="80"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="81"/>
       <c r="F122" s="44" t="s">
         <v>71</v>
       </c>
@@ -6768,14 +6768,14 @@
       <c r="A123" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B123" s="79" t="s">
+      <c r="B123" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C123" s="80"/>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="81"/>
+      <c r="C123" s="83"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="84"/>
     </row>
     <row r="124" spans="1:7" s="41" customFormat="1">
       <c r="A124" s="47" t="s">
@@ -6904,23 +6904,23 @@
       <c r="A131" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B131" s="82"/>
-      <c r="C131" s="83"/>
-      <c r="D131" s="83"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="83"/>
-      <c r="G131" s="84"/>
+      <c r="B131" s="76"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="78"/>
     </row>
     <row r="132" spans="1:7" s="41" customFormat="1">
       <c r="A132" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B132" s="76" t="s">
+      <c r="B132" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="78"/>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="81"/>
       <c r="F132" s="44" t="s">
         <v>71</v>
       </c>
@@ -6933,14 +6933,14 @@
       <c r="A133" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="79" t="s">
+      <c r="B133" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="80"/>
-      <c r="D133" s="80"/>
-      <c r="E133" s="80"/>
-      <c r="F133" s="80"/>
-      <c r="G133" s="81"/>
+      <c r="C133" s="83"/>
+      <c r="D133" s="83"/>
+      <c r="E133" s="83"/>
+      <c r="F133" s="83"/>
+      <c r="G133" s="84"/>
     </row>
     <row r="134" spans="1:7" s="41" customFormat="1">
       <c r="A134" s="47" t="s">
@@ -7037,23 +7037,23 @@
       <c r="A139" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B139" s="82"/>
-      <c r="C139" s="83"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
-      <c r="G139" s="84"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="78"/>
     </row>
     <row r="140" spans="1:7" s="41" customFormat="1" ht="30" customHeight="1">
       <c r="A140" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B140" s="91" t="s">
+      <c r="B140" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="78"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="81"/>
       <c r="F140" s="44" t="s">
         <v>71</v>
       </c>
@@ -7066,14 +7066,14 @@
       <c r="A141" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B141" s="79" t="s">
+      <c r="B141" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C141" s="80"/>
-      <c r="D141" s="80"/>
-      <c r="E141" s="80"/>
-      <c r="F141" s="80"/>
-      <c r="G141" s="81"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="83"/>
+      <c r="G141" s="84"/>
     </row>
     <row r="142" spans="1:7" s="41" customFormat="1">
       <c r="A142" s="47" t="s">
@@ -7204,23 +7204,23 @@
       <c r="A149" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B149" s="82"/>
-      <c r="C149" s="83"/>
-      <c r="D149" s="83"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="83"/>
-      <c r="G149" s="84"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="78"/>
     </row>
     <row r="150" spans="1:7" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B150" s="91" t="s">
+      <c r="B150" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="77"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="78"/>
+      <c r="C150" s="80"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="81"/>
       <c r="F150" s="44" t="s">
         <v>71</v>
       </c>
@@ -7233,14 +7233,14 @@
       <c r="A151" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="79" t="s">
+      <c r="B151" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C151" s="80"/>
-      <c r="D151" s="80"/>
-      <c r="E151" s="80"/>
-      <c r="F151" s="80"/>
-      <c r="G151" s="81"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="84"/>
     </row>
     <row r="152" spans="1:7" s="41" customFormat="1">
       <c r="A152" s="47" t="s">
@@ -7405,23 +7405,23 @@
       <c r="A161" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B161" s="82"/>
-      <c r="C161" s="83"/>
-      <c r="D161" s="83"/>
-      <c r="E161" s="83"/>
-      <c r="F161" s="83"/>
-      <c r="G161" s="84"/>
+      <c r="B161" s="76"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="77"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="77"/>
+      <c r="G161" s="78"/>
     </row>
     <row r="162" spans="1:7" s="41" customFormat="1">
       <c r="A162" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B162" s="91" t="s">
+      <c r="B162" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C162" s="77"/>
-      <c r="D162" s="77"/>
-      <c r="E162" s="78"/>
+      <c r="C162" s="80"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="81"/>
       <c r="F162" s="44" t="s">
         <v>71</v>
       </c>
@@ -7434,14 +7434,14 @@
       <c r="A163" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B163" s="79" t="s">
+      <c r="B163" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C163" s="80"/>
-      <c r="D163" s="80"/>
-      <c r="E163" s="80"/>
-      <c r="F163" s="80"/>
-      <c r="G163" s="81"/>
+      <c r="C163" s="83"/>
+      <c r="D163" s="83"/>
+      <c r="E163" s="83"/>
+      <c r="F163" s="83"/>
+      <c r="G163" s="84"/>
     </row>
     <row r="164" spans="1:7" s="41" customFormat="1">
       <c r="A164" s="47" t="s">
@@ -7555,23 +7555,23 @@
       <c r="A170" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B170" s="82"/>
-      <c r="C170" s="83"/>
-      <c r="D170" s="83"/>
-      <c r="E170" s="83"/>
-      <c r="F170" s="83"/>
-      <c r="G170" s="84"/>
+      <c r="B170" s="76"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="77"/>
+      <c r="E170" s="77"/>
+      <c r="F170" s="77"/>
+      <c r="G170" s="78"/>
     </row>
     <row r="171" spans="1:7" s="54" customFormat="1">
       <c r="A171" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="76" t="s">
+      <c r="B171" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="77"/>
-      <c r="D171" s="77"/>
-      <c r="E171" s="78"/>
+      <c r="C171" s="80"/>
+      <c r="D171" s="80"/>
+      <c r="E171" s="81"/>
       <c r="F171" s="44" t="s">
         <v>71</v>
       </c>
@@ -7584,14 +7584,14 @@
       <c r="A172" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="79" t="s">
+      <c r="B172" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C172" s="80"/>
-      <c r="D172" s="80"/>
-      <c r="E172" s="80"/>
-      <c r="F172" s="80"/>
-      <c r="G172" s="81"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="83"/>
+      <c r="E172" s="83"/>
+      <c r="F172" s="83"/>
+      <c r="G172" s="84"/>
     </row>
     <row r="173" spans="1:7" ht="28.5" customHeight="1">
       <c r="A173" s="47" t="s">
@@ -7771,23 +7771,23 @@
       <c r="A183" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B183" s="82"/>
-      <c r="C183" s="83"/>
-      <c r="D183" s="83"/>
-      <c r="E183" s="83"/>
-      <c r="F183" s="83"/>
-      <c r="G183" s="84"/>
+      <c r="B183" s="76"/>
+      <c r="C183" s="77"/>
+      <c r="D183" s="77"/>
+      <c r="E183" s="77"/>
+      <c r="F183" s="77"/>
+      <c r="G183" s="78"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B184" s="76" t="s">
+      <c r="B184" s="79" t="s">
         <v>198</v>
       </c>
-      <c r="C184" s="77"/>
-      <c r="D184" s="77"/>
-      <c r="E184" s="78"/>
+      <c r="C184" s="80"/>
+      <c r="D184" s="80"/>
+      <c r="E184" s="81"/>
       <c r="F184" s="44" t="s">
         <v>71</v>
       </c>
@@ -7800,14 +7800,14 @@
       <c r="A185" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B185" s="79" t="s">
+      <c r="B185" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C185" s="80"/>
-      <c r="D185" s="80"/>
-      <c r="E185" s="80"/>
-      <c r="F185" s="80"/>
-      <c r="G185" s="81"/>
+      <c r="C185" s="83"/>
+      <c r="D185" s="83"/>
+      <c r="E185" s="83"/>
+      <c r="F185" s="83"/>
+      <c r="G185" s="84"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="47" t="s">
@@ -7908,23 +7908,23 @@
       <c r="A191" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B191" s="82"/>
-      <c r="C191" s="83"/>
-      <c r="D191" s="83"/>
-      <c r="E191" s="83"/>
-      <c r="F191" s="83"/>
-      <c r="G191" s="84"/>
+      <c r="B191" s="76"/>
+      <c r="C191" s="77"/>
+      <c r="D191" s="77"/>
+      <c r="E191" s="77"/>
+      <c r="F191" s="77"/>
+      <c r="G191" s="78"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B192" s="76" t="s">
+      <c r="B192" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C192" s="77"/>
-      <c r="D192" s="77"/>
-      <c r="E192" s="78"/>
+      <c r="C192" s="80"/>
+      <c r="D192" s="80"/>
+      <c r="E192" s="81"/>
       <c r="F192" s="44" t="s">
         <v>71</v>
       </c>
@@ -7937,14 +7937,14 @@
       <c r="A193" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B193" s="79" t="s">
+      <c r="B193" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C193" s="80"/>
-      <c r="D193" s="80"/>
-      <c r="E193" s="80"/>
-      <c r="F193" s="80"/>
-      <c r="G193" s="81"/>
+      <c r="C193" s="83"/>
+      <c r="D193" s="83"/>
+      <c r="E193" s="83"/>
+      <c r="F193" s="83"/>
+      <c r="G193" s="84"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="47" t="s">
@@ -8043,23 +8043,23 @@
       <c r="A199" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B199" s="82"/>
-      <c r="C199" s="83"/>
-      <c r="D199" s="83"/>
-      <c r="E199" s="83"/>
-      <c r="F199" s="83"/>
-      <c r="G199" s="84"/>
+      <c r="B199" s="76"/>
+      <c r="C199" s="77"/>
+      <c r="D199" s="77"/>
+      <c r="E199" s="77"/>
+      <c r="F199" s="77"/>
+      <c r="G199" s="78"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B200" s="76" t="s">
+      <c r="B200" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C200" s="77"/>
-      <c r="D200" s="77"/>
-      <c r="E200" s="78"/>
+      <c r="C200" s="80"/>
+      <c r="D200" s="80"/>
+      <c r="E200" s="81"/>
       <c r="F200" s="44" t="s">
         <v>71</v>
       </c>
@@ -8072,14 +8072,14 @@
       <c r="A201" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="79" t="s">
+      <c r="B201" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C201" s="80"/>
-      <c r="D201" s="80"/>
-      <c r="E201" s="80"/>
-      <c r="F201" s="80"/>
-      <c r="G201" s="81"/>
+      <c r="C201" s="83"/>
+      <c r="D201" s="83"/>
+      <c r="E201" s="83"/>
+      <c r="F201" s="83"/>
+      <c r="G201" s="84"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="47" t="s">
@@ -8161,23 +8161,23 @@
       <c r="A206" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B206" s="82"/>
-      <c r="C206" s="83"/>
-      <c r="D206" s="83"/>
-      <c r="E206" s="83"/>
-      <c r="F206" s="83"/>
-      <c r="G206" s="84"/>
+      <c r="B206" s="76"/>
+      <c r="C206" s="77"/>
+      <c r="D206" s="77"/>
+      <c r="E206" s="77"/>
+      <c r="F206" s="77"/>
+      <c r="G206" s="78"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B207" s="76" t="s">
+      <c r="B207" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="C207" s="77"/>
-      <c r="D207" s="77"/>
-      <c r="E207" s="78"/>
+      <c r="C207" s="80"/>
+      <c r="D207" s="80"/>
+      <c r="E207" s="81"/>
       <c r="F207" s="44" t="s">
         <v>71</v>
       </c>
@@ -8190,14 +8190,14 @@
       <c r="A208" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B208" s="79" t="s">
+      <c r="B208" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="80"/>
-      <c r="D208" s="80"/>
-      <c r="E208" s="80"/>
-      <c r="F208" s="80"/>
-      <c r="G208" s="81"/>
+      <c r="C208" s="83"/>
+      <c r="D208" s="83"/>
+      <c r="E208" s="83"/>
+      <c r="F208" s="83"/>
+      <c r="G208" s="84"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="47" t="s">
@@ -8279,23 +8279,23 @@
       <c r="A213" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B213" s="82"/>
-      <c r="C213" s="83"/>
-      <c r="D213" s="83"/>
-      <c r="E213" s="83"/>
-      <c r="F213" s="83"/>
-      <c r="G213" s="84"/>
+      <c r="B213" s="76"/>
+      <c r="C213" s="77"/>
+      <c r="D213" s="77"/>
+      <c r="E213" s="77"/>
+      <c r="F213" s="77"/>
+      <c r="G213" s="78"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B214" s="76" t="s">
+      <c r="B214" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C214" s="77"/>
-      <c r="D214" s="77"/>
-      <c r="E214" s="78"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="80"/>
+      <c r="E214" s="81"/>
       <c r="F214" s="44" t="s">
         <v>71</v>
       </c>
@@ -8308,14 +8308,14 @@
       <c r="A215" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B215" s="79" t="s">
+      <c r="B215" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C215" s="80"/>
-      <c r="D215" s="80"/>
-      <c r="E215" s="80"/>
-      <c r="F215" s="80"/>
-      <c r="G215" s="81"/>
+      <c r="C215" s="83"/>
+      <c r="D215" s="83"/>
+      <c r="E215" s="83"/>
+      <c r="F215" s="83"/>
+      <c r="G215" s="84"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="47" t="s">
@@ -8395,12 +8395,12 @@
       <c r="A220" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B220" s="82"/>
-      <c r="C220" s="83"/>
-      <c r="D220" s="83"/>
-      <c r="E220" s="83"/>
-      <c r="F220" s="83"/>
-      <c r="G220" s="84"/>
+      <c r="B220" s="76"/>
+      <c r="C220" s="77"/>
+      <c r="D220" s="77"/>
+      <c r="E220" s="77"/>
+      <c r="F220" s="77"/>
+      <c r="G220" s="78"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="19"/>
@@ -15026,46 +15026,21 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B220:G220"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:G193"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F6:G6"/>
@@ -15078,21 +15053,46 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:G201"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B123:G123"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F439:F441 F85:F87 F446:F452 F665:F667 F655:F660 F457:F466 F471:F474 F479:F484 F489:F497 F502:F511 F516:F526 F531:F541 F557:F563 F585:F587 F546:F552 F568:F574 F579:F580 F592:F598 F603:F609 F625:F627 F614:F620 F632:F635 F640:F642 F647:F650 F27:F29 F106:F111 F34:F37 F125:F130 F50:F55 F89 F21:F22 F116:F121 F69:F73 F77:F82 F135:F138 F143:F148 F153:F160 F165:F169 F174:F182 F187:F190 F195:F198 F203:F205 F210:F212 F42:F46 F92:F101 F59:F65 F217:F219" xr:uid="{C6F465C4-DCB6-4499-AB3A-14CFBFC35FC3}">

--- a/TCS_NEWUI-My Exports Page.xlsx
+++ b/TCS_NEWUI-My Exports Page.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19185D13-F464-472E-BA44-9F8495F4CFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DC679C-CCA6-4393-A21A-C922EC312CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52D8B5C8-5704-42E7-840D-357200026F6F}"/>
   </bookViews>
@@ -1672,15 +1672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1699,8 +1690,14 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="33" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="34" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1718,6 +1715,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="18" borderId="31" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="32" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3864,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DCF538-88E1-407F-849A-97E1CB23C8A7}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4125,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98CA303-092F-4267-9E96-5FD55453FE85}">
   <dimension ref="A1:H956"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -4792,10 +4792,10 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="16"/>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="87"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="16"/>
@@ -4854,10 +4854,10 @@
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="89"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:8" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="16"/>
@@ -4988,39 +4988,39 @@
       <c r="G15" s="39"/>
     </row>
     <row r="16" spans="1:8" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="42"/>
     </row>
     <row r="18" spans="1:8" s="41" customFormat="1">
       <c r="A18" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
       <c r="F18" s="44" t="s">
         <v>71</v>
       </c>
@@ -5034,14 +5034,14 @@
       <c r="A19" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="82" t="s">
+      <c r="B19" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
     </row>
     <row r="20" spans="1:8" s="41" customFormat="1">
       <c r="A20" s="47" t="s">
@@ -5107,23 +5107,23 @@
       <c r="A23" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="78"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:8" s="41" customFormat="1">
       <c r="A24" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
       <c r="F24" s="44" t="s">
         <v>71</v>
       </c>
@@ -5136,14 +5136,14 @@
       <c r="A25" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="84"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
     </row>
     <row r="26" spans="1:8" s="41" customFormat="1">
       <c r="A26" s="47" t="s">
@@ -5225,23 +5225,23 @@
       <c r="A30" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="84"/>
     </row>
     <row r="31" spans="1:8" s="41" customFormat="1">
       <c r="A31" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="78"/>
       <c r="F31" s="44" t="s">
         <v>71</v>
       </c>
@@ -5254,14 +5254,14 @@
       <c r="A32" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="84"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="81"/>
     </row>
     <row r="33" spans="1:7" s="41" customFormat="1">
       <c r="A33" s="47" t="s">
@@ -5358,23 +5358,23 @@
       <c r="A38" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="78"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="83"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="84"/>
     </row>
     <row r="39" spans="1:7" s="41" customFormat="1">
       <c r="A39" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="81"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="44" t="s">
         <v>71</v>
       </c>
@@ -5387,14 +5387,14 @@
       <c r="A40" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="82" t="s">
+      <c r="B40" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="84"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
     </row>
     <row r="41" spans="1:7" s="41" customFormat="1">
       <c r="A41" s="47" t="s">
@@ -5491,23 +5491,23 @@
       <c r="A46" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="78"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="84"/>
     </row>
     <row r="47" spans="1:7" s="41" customFormat="1">
       <c r="A47" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="81"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="78"/>
       <c r="F47" s="44" t="s">
         <v>71</v>
       </c>
@@ -5520,14 +5520,14 @@
       <c r="A48" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="82" t="s">
+      <c r="B48" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="84"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
     </row>
     <row r="49" spans="1:7" s="41" customFormat="1">
       <c r="A49" s="47" t="s">
@@ -5652,12 +5652,12 @@
       <c r="A56" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="81"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="78"/>
       <c r="F56" s="44" t="s">
         <v>71</v>
       </c>
@@ -5670,14 +5670,14 @@
       <c r="A57" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="82" t="s">
+      <c r="B57" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="84"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
     </row>
     <row r="58" spans="1:7" s="41" customFormat="1">
       <c r="A58" s="47" t="s">
@@ -5819,12 +5819,12 @@
       <c r="A66" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="79" t="s">
+      <c r="B66" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="81"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="78"/>
       <c r="F66" s="44" t="s">
         <v>71</v>
       </c>
@@ -5837,14 +5837,14 @@
       <c r="A67" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="82" t="s">
+      <c r="B67" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="84"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="81"/>
     </row>
     <row r="68" spans="1:7" s="41" customFormat="1">
       <c r="A68" s="47" t="s">
@@ -5952,12 +5952,12 @@
       <c r="A74" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="81"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="78"/>
       <c r="F74" s="44" t="s">
         <v>71</v>
       </c>
@@ -5970,14 +5970,14 @@
       <c r="A75" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B75" s="82" t="s">
+      <c r="B75" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="84"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="81"/>
     </row>
     <row r="76" spans="1:7" s="41" customFormat="1">
       <c r="A76" s="47" t="s">
@@ -6085,12 +6085,12 @@
       <c r="A82" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="80"/>
-      <c r="D82" s="80"/>
-      <c r="E82" s="81"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="44"/>
       <c r="G82" s="45" t="str">
         <f>IF(COUNTIF(F85:F87,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F85:F87,"Fail")&gt;0,"Fail",IF(COUNTIF(F85:F87,"")=0,"Pass","Not Executed")))</f>
@@ -6101,14 +6101,14 @@
       <c r="A83" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B83" s="82" t="s">
+      <c r="B83" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="83"/>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="84"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="81"/>
     </row>
     <row r="84" spans="1:8" s="41" customFormat="1">
       <c r="A84" s="47" t="s">
@@ -6188,23 +6188,23 @@
       <c r="A88" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="76"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="78"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="83"/>
+      <c r="G88" s="84"/>
     </row>
     <row r="89" spans="1:8" s="54" customFormat="1">
       <c r="A89" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="79" t="s">
+      <c r="B89" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="81"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="78"/>
       <c r="F89" s="44"/>
       <c r="G89" s="45" t="str">
         <f>IF(COUNTIF(F92:F101,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F92:F101,"Fail")&gt;0,"Fail",IF(COUNTIF(F92:F101,"")=0,"Pass","Not Executed")))</f>
@@ -6215,14 +6215,14 @@
       <c r="A90" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B90" s="82" t="s">
+      <c r="B90" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="84"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80"/>
+      <c r="G90" s="81"/>
     </row>
     <row r="91" spans="1:8" s="54" customFormat="1">
       <c r="A91" s="47" t="s">
@@ -6431,12 +6431,12 @@
       <c r="A103" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B103" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="C103" s="80"/>
-      <c r="D103" s="80"/>
-      <c r="E103" s="81"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="78"/>
       <c r="F103" s="44" t="s">
         <v>71</v>
       </c>
@@ -6449,14 +6449,14 @@
       <c r="A104" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B104" s="82" t="s">
+      <c r="B104" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="83"/>
-      <c r="G104" s="84"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="80"/>
+      <c r="E104" s="80"/>
+      <c r="F104" s="80"/>
+      <c r="G104" s="81"/>
     </row>
     <row r="105" spans="1:7" s="41" customFormat="1">
       <c r="A105" s="47" t="s">
@@ -6585,23 +6585,23 @@
       <c r="A112" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="78"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="84"/>
     </row>
     <row r="113" spans="1:7" s="41" customFormat="1">
       <c r="A113" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="79" t="s">
+      <c r="B113" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="C113" s="80"/>
-      <c r="D113" s="80"/>
-      <c r="E113" s="81"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="78"/>
       <c r="F113" s="44" t="s">
         <v>71</v>
       </c>
@@ -6614,14 +6614,14 @@
       <c r="A114" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B114" s="82" t="s">
+      <c r="B114" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="84"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="80"/>
+      <c r="G114" s="81"/>
     </row>
     <row r="115" spans="1:7" s="41" customFormat="1">
       <c r="A115" s="47" t="s">
@@ -6750,12 +6750,12 @@
       <c r="A122" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B122" s="79" t="s">
+      <c r="B122" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C122" s="80"/>
-      <c r="D122" s="80"/>
-      <c r="E122" s="81"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="78"/>
       <c r="F122" s="44" t="s">
         <v>71</v>
       </c>
@@ -6768,14 +6768,14 @@
       <c r="A123" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B123" s="82" t="s">
+      <c r="B123" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C123" s="83"/>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
-      <c r="G123" s="84"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="80"/>
+      <c r="E123" s="80"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="81"/>
     </row>
     <row r="124" spans="1:7" s="41" customFormat="1">
       <c r="A124" s="47" t="s">
@@ -6904,23 +6904,23 @@
       <c r="A131" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B131" s="76"/>
-      <c r="C131" s="77"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="77"/>
-      <c r="G131" s="78"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="83"/>
+      <c r="D131" s="83"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="83"/>
+      <c r="G131" s="84"/>
     </row>
     <row r="132" spans="1:7" s="41" customFormat="1">
       <c r="A132" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B132" s="79" t="s">
+      <c r="B132" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="81"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="78"/>
       <c r="F132" s="44" t="s">
         <v>71</v>
       </c>
@@ -6933,14 +6933,14 @@
       <c r="A133" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="83"/>
-      <c r="F133" s="83"/>
-      <c r="G133" s="84"/>
+      <c r="C133" s="80"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="80"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="81"/>
     </row>
     <row r="134" spans="1:7" s="41" customFormat="1">
       <c r="A134" s="47" t="s">
@@ -7037,23 +7037,23 @@
       <c r="A139" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B139" s="76"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="77"/>
-      <c r="G139" s="78"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="83"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="84"/>
     </row>
     <row r="140" spans="1:7" s="41" customFormat="1" ht="30" customHeight="1">
       <c r="A140" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="B140" s="85" t="s">
+      <c r="B140" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="C140" s="80"/>
-      <c r="D140" s="80"/>
-      <c r="E140" s="81"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="78"/>
       <c r="F140" s="44" t="s">
         <v>71</v>
       </c>
@@ -7066,14 +7066,14 @@
       <c r="A141" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B141" s="82" t="s">
+      <c r="B141" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
-      <c r="F141" s="83"/>
-      <c r="G141" s="84"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="80"/>
+      <c r="G141" s="81"/>
     </row>
     <row r="142" spans="1:7" s="41" customFormat="1">
       <c r="A142" s="47" t="s">
@@ -7204,23 +7204,23 @@
       <c r="A149" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B149" s="76"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="77"/>
-      <c r="G149" s="78"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="83"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="83"/>
+      <c r="F149" s="83"/>
+      <c r="G149" s="84"/>
     </row>
     <row r="150" spans="1:7" s="41" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B150" s="85" t="s">
+      <c r="B150" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="80"/>
-      <c r="D150" s="80"/>
-      <c r="E150" s="81"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="78"/>
       <c r="F150" s="44" t="s">
         <v>71</v>
       </c>
@@ -7233,14 +7233,14 @@
       <c r="A151" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="82" t="s">
+      <c r="B151" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C151" s="83"/>
-      <c r="D151" s="83"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="83"/>
-      <c r="G151" s="84"/>
+      <c r="C151" s="80"/>
+      <c r="D151" s="80"/>
+      <c r="E151" s="80"/>
+      <c r="F151" s="80"/>
+      <c r="G151" s="81"/>
     </row>
     <row r="152" spans="1:7" s="41" customFormat="1">
       <c r="A152" s="47" t="s">
@@ -7405,23 +7405,23 @@
       <c r="A161" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B161" s="76"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="77"/>
-      <c r="E161" s="77"/>
-      <c r="F161" s="77"/>
-      <c r="G161" s="78"/>
+      <c r="B161" s="82"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="83"/>
+      <c r="E161" s="83"/>
+      <c r="F161" s="83"/>
+      <c r="G161" s="84"/>
     </row>
     <row r="162" spans="1:7" s="41" customFormat="1">
       <c r="A162" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="B162" s="85" t="s">
+      <c r="B162" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C162" s="80"/>
-      <c r="D162" s="80"/>
-      <c r="E162" s="81"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="78"/>
       <c r="F162" s="44" t="s">
         <v>71</v>
       </c>
@@ -7434,14 +7434,14 @@
       <c r="A163" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B163" s="82" t="s">
+      <c r="B163" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C163" s="83"/>
-      <c r="D163" s="83"/>
-      <c r="E163" s="83"/>
-      <c r="F163" s="83"/>
-      <c r="G163" s="84"/>
+      <c r="C163" s="80"/>
+      <c r="D163" s="80"/>
+      <c r="E163" s="80"/>
+      <c r="F163" s="80"/>
+      <c r="G163" s="81"/>
     </row>
     <row r="164" spans="1:7" s="41" customFormat="1">
       <c r="A164" s="47" t="s">
@@ -7555,23 +7555,23 @@
       <c r="A170" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B170" s="76"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="78"/>
+      <c r="B170" s="82"/>
+      <c r="C170" s="83"/>
+      <c r="D170" s="83"/>
+      <c r="E170" s="83"/>
+      <c r="F170" s="83"/>
+      <c r="G170" s="84"/>
     </row>
     <row r="171" spans="1:7" s="54" customFormat="1">
       <c r="A171" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B171" s="79" t="s">
+      <c r="B171" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="C171" s="80"/>
-      <c r="D171" s="80"/>
-      <c r="E171" s="81"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="77"/>
+      <c r="E171" s="78"/>
       <c r="F171" s="44" t="s">
         <v>71</v>
       </c>
@@ -7584,14 +7584,14 @@
       <c r="A172" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="82" t="s">
+      <c r="B172" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C172" s="83"/>
-      <c r="D172" s="83"/>
-      <c r="E172" s="83"/>
-      <c r="F172" s="83"/>
-      <c r="G172" s="84"/>
+      <c r="C172" s="80"/>
+      <c r="D172" s="80"/>
+      <c r="E172" s="80"/>
+      <c r="F172" s="80"/>
+      <c r="G172" s="81"/>
     </row>
     <row r="173" spans="1:7" ht="28.5" customHeight="1">
       <c r="A173" s="47" t="s">
@@ -7771,23 +7771,23 @@
       <c r="A183" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B183" s="76"/>
-      <c r="C183" s="77"/>
-      <c r="D183" s="77"/>
-      <c r="E183" s="77"/>
-      <c r="F183" s="77"/>
-      <c r="G183" s="78"/>
+      <c r="B183" s="82"/>
+      <c r="C183" s="83"/>
+      <c r="D183" s="83"/>
+      <c r="E183" s="83"/>
+      <c r="F183" s="83"/>
+      <c r="G183" s="84"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B184" s="79" t="s">
+      <c r="B184" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C184" s="80"/>
-      <c r="D184" s="80"/>
-      <c r="E184" s="81"/>
+      <c r="C184" s="77"/>
+      <c r="D184" s="77"/>
+      <c r="E184" s="78"/>
       <c r="F184" s="44" t="s">
         <v>71</v>
       </c>
@@ -7800,14 +7800,14 @@
       <c r="A185" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B185" s="82" t="s">
+      <c r="B185" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C185" s="83"/>
-      <c r="D185" s="83"/>
-      <c r="E185" s="83"/>
-      <c r="F185" s="83"/>
-      <c r="G185" s="84"/>
+      <c r="C185" s="80"/>
+      <c r="D185" s="80"/>
+      <c r="E185" s="80"/>
+      <c r="F185" s="80"/>
+      <c r="G185" s="81"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="47" t="s">
@@ -7908,23 +7908,23 @@
       <c r="A191" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B191" s="76"/>
-      <c r="C191" s="77"/>
-      <c r="D191" s="77"/>
-      <c r="E191" s="77"/>
-      <c r="F191" s="77"/>
-      <c r="G191" s="78"/>
+      <c r="B191" s="82"/>
+      <c r="C191" s="83"/>
+      <c r="D191" s="83"/>
+      <c r="E191" s="83"/>
+      <c r="F191" s="83"/>
+      <c r="G191" s="84"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B192" s="79" t="s">
+      <c r="B192" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C192" s="80"/>
-      <c r="D192" s="80"/>
-      <c r="E192" s="81"/>
+      <c r="C192" s="77"/>
+      <c r="D192" s="77"/>
+      <c r="E192" s="78"/>
       <c r="F192" s="44" t="s">
         <v>71</v>
       </c>
@@ -7937,14 +7937,14 @@
       <c r="A193" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B193" s="82" t="s">
+      <c r="B193" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C193" s="83"/>
-      <c r="D193" s="83"/>
-      <c r="E193" s="83"/>
-      <c r="F193" s="83"/>
-      <c r="G193" s="84"/>
+      <c r="C193" s="80"/>
+      <c r="D193" s="80"/>
+      <c r="E193" s="80"/>
+      <c r="F193" s="80"/>
+      <c r="G193" s="81"/>
     </row>
     <row r="194" spans="1:7">
       <c r="A194" s="47" t="s">
@@ -8043,23 +8043,23 @@
       <c r="A199" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B199" s="76"/>
-      <c r="C199" s="77"/>
-      <c r="D199" s="77"/>
-      <c r="E199" s="77"/>
-      <c r="F199" s="77"/>
-      <c r="G199" s="78"/>
+      <c r="B199" s="82"/>
+      <c r="C199" s="83"/>
+      <c r="D199" s="83"/>
+      <c r="E199" s="83"/>
+      <c r="F199" s="83"/>
+      <c r="G199" s="84"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B200" s="79" t="s">
+      <c r="B200" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C200" s="80"/>
-      <c r="D200" s="80"/>
-      <c r="E200" s="81"/>
+      <c r="C200" s="77"/>
+      <c r="D200" s="77"/>
+      <c r="E200" s="78"/>
       <c r="F200" s="44" t="s">
         <v>71</v>
       </c>
@@ -8072,14 +8072,14 @@
       <c r="A201" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="82" t="s">
+      <c r="B201" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C201" s="83"/>
-      <c r="D201" s="83"/>
-      <c r="E201" s="83"/>
-      <c r="F201" s="83"/>
-      <c r="G201" s="84"/>
+      <c r="C201" s="80"/>
+      <c r="D201" s="80"/>
+      <c r="E201" s="80"/>
+      <c r="F201" s="80"/>
+      <c r="G201" s="81"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="47" t="s">
@@ -8161,23 +8161,23 @@
       <c r="A206" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B206" s="76"/>
-      <c r="C206" s="77"/>
-      <c r="D206" s="77"/>
-      <c r="E206" s="77"/>
-      <c r="F206" s="77"/>
-      <c r="G206" s="78"/>
+      <c r="B206" s="82"/>
+      <c r="C206" s="83"/>
+      <c r="D206" s="83"/>
+      <c r="E206" s="83"/>
+      <c r="F206" s="83"/>
+      <c r="G206" s="84"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B207" s="79" t="s">
+      <c r="B207" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="C207" s="80"/>
-      <c r="D207" s="80"/>
-      <c r="E207" s="81"/>
+      <c r="C207" s="77"/>
+      <c r="D207" s="77"/>
+      <c r="E207" s="78"/>
       <c r="F207" s="44" t="s">
         <v>71</v>
       </c>
@@ -8190,14 +8190,14 @@
       <c r="A208" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B208" s="82" t="s">
+      <c r="B208" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C208" s="83"/>
-      <c r="D208" s="83"/>
-      <c r="E208" s="83"/>
-      <c r="F208" s="83"/>
-      <c r="G208" s="84"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="80"/>
+      <c r="E208" s="80"/>
+      <c r="F208" s="80"/>
+      <c r="G208" s="81"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="47" t="s">
@@ -8279,23 +8279,23 @@
       <c r="A213" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B213" s="76"/>
-      <c r="C213" s="77"/>
-      <c r="D213" s="77"/>
-      <c r="E213" s="77"/>
-      <c r="F213" s="77"/>
-      <c r="G213" s="78"/>
+      <c r="B213" s="82"/>
+      <c r="C213" s="83"/>
+      <c r="D213" s="83"/>
+      <c r="E213" s="83"/>
+      <c r="F213" s="83"/>
+      <c r="G213" s="84"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B214" s="79" t="s">
+      <c r="B214" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="C214" s="80"/>
-      <c r="D214" s="80"/>
-      <c r="E214" s="81"/>
+      <c r="C214" s="77"/>
+      <c r="D214" s="77"/>
+      <c r="E214" s="78"/>
       <c r="F214" s="44" t="s">
         <v>71</v>
       </c>
@@ -8308,14 +8308,14 @@
       <c r="A215" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B215" s="82" t="s">
+      <c r="B215" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="C215" s="83"/>
-      <c r="D215" s="83"/>
-      <c r="E215" s="83"/>
-      <c r="F215" s="83"/>
-      <c r="G215" s="84"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="80"/>
+      <c r="E215" s="80"/>
+      <c r="F215" s="80"/>
+      <c r="G215" s="81"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="47" t="s">
@@ -8395,12 +8395,12 @@
       <c r="A220" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B220" s="76"/>
-      <c r="C220" s="77"/>
-      <c r="D220" s="77"/>
-      <c r="E220" s="77"/>
-      <c r="F220" s="77"/>
-      <c r="G220" s="78"/>
+      <c r="B220" s="82"/>
+      <c r="C220" s="83"/>
+      <c r="D220" s="83"/>
+      <c r="E220" s="83"/>
+      <c r="F220" s="83"/>
+      <c r="G220" s="84"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="19"/>
@@ -15026,21 +15026,46 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B214:E214"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B213:G213"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:G201"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B185:G185"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B192:E192"/>
-    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B149:G149"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B150:E150"/>
+    <mergeCell ref="B151:G151"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B171:E171"/>
+    <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B66:E66"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F6:G6"/>
@@ -15053,46 +15078,21 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B150:E150"/>
-    <mergeCell ref="B151:G151"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B171:E171"/>
-    <mergeCell ref="B172:G172"/>
-    <mergeCell ref="B149:G149"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B185:G185"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B192:E192"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:G201"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B214:E214"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B220:G220"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B213:G213"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F439:F441 F85:F87 F446:F452 F665:F667 F655:F660 F457:F466 F471:F474 F479:F484 F489:F497 F502:F511 F516:F526 F531:F541 F557:F563 F585:F587 F546:F552 F568:F574 F579:F580 F592:F598 F603:F609 F625:F627 F614:F620 F632:F635 F640:F642 F647:F650 F27:F29 F106:F111 F34:F37 F125:F130 F50:F55 F89 F21:F22 F116:F121 F69:F73 F77:F82 F135:F138 F143:F148 F153:F160 F165:F169 F174:F182 F187:F190 F195:F198 F203:F205 F210:F212 F42:F46 F92:F101 F59:F65 F217:F219" xr:uid="{C6F465C4-DCB6-4499-AB3A-14CFBFC35FC3}">
